--- a/data/trans_dic/P3A$pareja-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P3A$pareja-Habitat-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.2198439755894563</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3415477484164066</v>
+        <v>0.3415477484164067</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4256556181490186</v>
+        <v>0.4269020365982326</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1971042638537891</v>
+        <v>0.195983107487696</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3171614752607088</v>
+        <v>0.3157431907401176</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5106877073532748</v>
+        <v>0.5105890749828196</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2451881540200949</v>
+        <v>0.2432535230215719</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3679333501534019</v>
+        <v>0.3634857170136029</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4766663183377067</v>
+        <v>0.4737019704114564</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2183081477777143</v>
+        <v>0.2169159932865181</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3546271553389653</v>
+        <v>0.3527895416742602</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5432535507448027</v>
+        <v>0.5459883517570702</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2650061603731526</v>
+        <v>0.2652997834538085</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3977446900679462</v>
+        <v>0.3958870724607573</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4690540432443787</v>
+        <v>0.4721104971041515</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2164904615738471</v>
+        <v>0.2154841310511899</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3477663065033733</v>
+        <v>0.3513761917367619</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5525386946556153</v>
+        <v>0.5563220043961267</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2723399620622478</v>
+        <v>0.2687057465373218</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.399267889111584</v>
+        <v>0.3987481366968215</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.473494645730085</v>
+        <v>0.4734946457300851</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.1932780392445953</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.439158565476658</v>
+        <v>0.4412271441514756</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1752720193945711</v>
+        <v>0.1765448108074523</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3068564866039014</v>
+        <v>0.3046869340500194</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.507750731622631</v>
+        <v>0.5093102991932689</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2151777745512732</v>
+        <v>0.2136850826865059</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3447967377823802</v>
+        <v>0.3433024313273158</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4747378781784632</v>
+        <v>0.4743216722758248</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2098479527136888</v>
+        <v>0.2117291406404459</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3425145153727588</v>
+        <v>0.3423221061707669</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5120166419398764</v>
+        <v>0.5114175633552323</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2334815085995864</v>
+        <v>0.2349225061719885</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3649303721448481</v>
+        <v>0.3653319287485291</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>293799</v>
+        <v>294659</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>144710</v>
+        <v>143887</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>451767</v>
+        <v>449746</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>352490</v>
+        <v>352422</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>180012</v>
+        <v>178592</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>524086</v>
+        <v>517751</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>499983</v>
+        <v>496874</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>233912</v>
+        <v>232420</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>751948</v>
+        <v>748052</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>569828</v>
+        <v>572696</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>283947</v>
+        <v>284262</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>843374</v>
+        <v>839435</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>376685</v>
+        <v>379139</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>175846</v>
+        <v>175029</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>561758</v>
+        <v>567589</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>443729</v>
+        <v>446767</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>221211</v>
+        <v>218259</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>644950</v>
+        <v>644111</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>434526</v>
+        <v>436573</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>195918</v>
+        <v>197341</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>646623</v>
+        <v>642051</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>502395</v>
+        <v>503938</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>240525</v>
+        <v>238856</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>726573</v>
+        <v>723424</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1676617</v>
+        <v>1675147</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>783931</v>
+        <v>790958</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2489182</v>
+        <v>2487784</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1808273</v>
+        <v>1806158</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>872219</v>
+        <v>877602</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2652087</v>
+        <v>2655005</v>
       </c>
     </row>
     <row r="24">
